--- a/papers/troy/pstar/perf/data-constant-core-varying-wus.xlsx
+++ b/papers/troy/pstar/perf/data-constant-core-varying-wus.xlsx
@@ -547,6 +547,345 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Runtime of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> n WUs (/bin/date) on 8 nodes with 8 cores each (in sec)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>redis://cyder.cct.lsu.edu</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$A$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.3203508855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.47518277170001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.1909017562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235.510066032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>475.004185915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>938.825559139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>redis://india.futuregrid.org</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$A$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.05765128135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.7832789421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.60298800469999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.9300510884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272.7154979706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>508.278075933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>zmq://india.futuregrid.org</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blatt1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blatt1!$A$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.11755561829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.5474829674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.084649086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.4862000947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297.8677232268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>831.284599781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="885764360"/>
+        <c:axId val="867964456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="885764360"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="64.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Number WUs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="867964456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="867964456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Runtime (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="885764360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -574,6 +913,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3833,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/papers/troy/pstar/perf/data-constant-core-varying-wus.xlsx
+++ b/papers/troy/pstar/perf/data-constant-core-varying-wus.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="15980" windowHeight="20560" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data-constant-core-varying-wus." sheetId="1" r:id="rId1"/>
-    <sheet name="Blatt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Blatt2" sheetId="3" r:id="rId2"/>
+    <sheet name="Blatt3" sheetId="4" r:id="rId3"/>
+    <sheet name="Blatt1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="17">
   <si>
     <t>#Nodes</t>
   </si>
@@ -64,9 +66,6 @@
     <t>redis://i136</t>
   </si>
   <si>
-    <t>Summe - Runtime</t>
-  </si>
-  <si>
     <t>Zeilenbeschriftungen</t>
   </si>
   <si>
@@ -74,6 +73,9 @@
   </si>
   <si>
     <t>Spaltenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Mittelwert - Runtime</t>
   </si>
 </sst>
 </file>
@@ -222,30 +224,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$6:$G$6</c:f>
+              <c:f>Blatt1!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>516.686233759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2066.744935036</c:v>
+                  <c:v>671.36412525175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2685.456501007</c:v>
+                  <c:v>1298.264078795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5193.05631518</c:v>
+                  <c:v>2697.631529035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10790.52611614</c:v>
+                  <c:v>5345.147094646667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16035.44128394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33313.93037795</c:v>
+                  <c:v>11104.64345931666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,30 +286,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$8:$G$8</c:f>
+              <c:f>Blatt1!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>20.44011696183333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.3203508855</c:v>
+                  <c:v>29.73759138585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.47518277170001</c:v>
+                  <c:v>59.06363391873333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.1909017562</c:v>
+                  <c:v>117.755033016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235.510066032</c:v>
+                  <c:v>237.5020929575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>475.004185915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>938.825559139</c:v>
+                  <c:v>469.4127795695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,30 +348,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$10:$G$10</c:f>
+              <c:f>Blatt1!$B$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>6.352550427116667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.05765128135</c:v>
+                  <c:v>12.59442631403333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.7832789421</c:v>
+                  <c:v>23.20099600156666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.60298800469999</c:v>
+                  <c:v>43.6433503628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.9300510884</c:v>
+                  <c:v>90.9051659902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272.7154979706</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>508.278075933</c:v>
+                  <c:v>169.426025311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,30 +410,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$12:$G$12</c:f>
+              <c:f>Blatt1!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>17.623511123658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.11755561829</c:v>
+                  <c:v>16.50949659348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.5474829674</c:v>
+                  <c:v>29.2169298172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.084649086</c:v>
+                  <c:v>74.74310004735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.4862000947</c:v>
+                  <c:v>148.9338616134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297.8677232268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>831.284599781</c:v>
+                  <c:v>415.6422998905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,30 +616,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$8:$G$8</c:f>
+              <c:f>Blatt1!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>20.44011696183333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.3203508855</c:v>
+                  <c:v>29.73759138585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.47518277170001</c:v>
+                  <c:v>59.06363391873333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.1909017562</c:v>
+                  <c:v>117.755033016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235.510066032</c:v>
+                  <c:v>237.5020929575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>475.004185915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>938.825559139</c:v>
+                  <c:v>469.4127795695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,30 +678,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$10:$G$10</c:f>
+              <c:f>Blatt1!$B$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>6.352550427116667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.05765128135</c:v>
+                  <c:v>12.59442631403333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.7832789421</c:v>
+                  <c:v>23.20099600156666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.60298800469999</c:v>
+                  <c:v>43.6433503628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.9300510884</c:v>
+                  <c:v>90.9051659902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>272.7154979706</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>508.278075933</c:v>
+                  <c:v>169.426025311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,30 +740,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blatt1!$A$12:$G$12</c:f>
+              <c:f>Blatt1!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>17.623511123658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.11755561829</c:v>
+                  <c:v>16.50949659348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.5474829674</c:v>
+                  <c:v>29.2169298172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.084649086</c:v>
+                  <c:v>74.74310004735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.4862000947</c:v>
+                  <c:v>148.9338616134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297.8677232268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>831.284599781</c:v>
+                  <c:v>415.6422998905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,7 +1850,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe - Runtime" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Mittelwert - Runtime" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1878,6 +1859,40 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="#Nodes"/>
+    <tableColumn id="2" name="#cores/node"/>
+    <tableColumn id="3" name="#jobs"/>
+    <tableColumn id="4" name="Runtime"/>
+    <tableColumn id="5" name="Queuing Time"/>
+    <tableColumn id="6" name="Coordination URL"/>
+    <tableColumn id="7" name="LRMS URL"/>
+    <tableColumn id="8" name="SubJob Submission Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="#Nodes"/>
+    <tableColumn id="2" name="#cores/node"/>
+    <tableColumn id="3" name="#jobs"/>
+    <tableColumn id="4" name="Runtime"/>
+    <tableColumn id="5" name="Queuing Time"/>
+    <tableColumn id="6" name="Coordination URL"/>
+    <tableColumn id="7" name="LRMS URL"/>
+    <tableColumn id="8" name="SubJob Submission Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2204,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4202,10 +4217,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <v>1439.94847798</v>
+      </c>
+      <c r="E2">
+        <v>7.4952509403200001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1049.339571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>1313.79541397</v>
+      </c>
+      <c r="E3">
+        <v>6.7169389724700004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>954.819957972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>256</v>
+      </c>
+      <c r="D4">
+        <v>1279.6794931899999</v>
+      </c>
+      <c r="E4">
+        <v>6.7245042324100002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>929.27070617699997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>1159.63293004</v>
+      </c>
+      <c r="E5">
+        <v>6.2022030353500002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>839.14123701999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <v>1439.94847798</v>
+      </c>
+      <c r="E2">
+        <v>7.4952509403200001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1049.339571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>1313.79541397</v>
+      </c>
+      <c r="E3">
+        <v>6.7169389724700004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>954.819957972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>256</v>
+      </c>
+      <c r="D4">
+        <v>1279.6794931899999</v>
+      </c>
+      <c r="E4">
+        <v>6.7245042324100002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>929.27070617699997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>1159.63293004</v>
+      </c>
+      <c r="E5">
+        <v>6.2022030353500002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>839.14123701999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB44" sqref="AB44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4219,15 +4554,15 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>64</v>
@@ -4248,7 +4583,7 @@
         <v>2048</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4256,25 +4591,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>2066.7449350360002</v>
+        <v>516.68623375900006</v>
       </c>
       <c r="C5" s="3">
-        <v>2685.456501007</v>
+        <v>671.36412525175001</v>
       </c>
       <c r="D5" s="3">
-        <v>5193.0563151799997</v>
+        <v>1298.2640787949999</v>
       </c>
       <c r="E5" s="3">
-        <v>10790.526116139999</v>
+        <v>2697.6315290349999</v>
       </c>
       <c r="F5" s="3">
-        <v>16035.441283940001</v>
+        <v>5345.147094646667</v>
       </c>
       <c r="G5" s="3">
-        <v>33313.930377949997</v>
+        <v>11104.643459316665</v>
       </c>
       <c r="H5" s="3">
-        <v>70085.155529252996</v>
+        <v>3185.6888876933181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4282,25 +4617,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>2066.7449350360002</v>
+        <v>516.68623375900006</v>
       </c>
       <c r="C6" s="3">
-        <v>2685.456501007</v>
+        <v>671.36412525175001</v>
       </c>
       <c r="D6" s="3">
-        <v>5193.0563151799997</v>
+        <v>1298.2640787949999</v>
       </c>
       <c r="E6" s="3">
-        <v>10790.526116139999</v>
+        <v>2697.6315290349999</v>
       </c>
       <c r="F6" s="3">
-        <v>16035.441283940001</v>
+        <v>5345.147094646667</v>
       </c>
       <c r="G6" s="3">
-        <v>33313.930377949997</v>
+        <v>11104.643459316665</v>
       </c>
       <c r="H6" s="3">
-        <v>70085.155529252996</v>
+        <v>3185.6888876933181</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4308,25 +4643,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>61.320350885499998</v>
+        <v>20.440116961833333</v>
       </c>
       <c r="C7" s="3">
-        <v>59.475182771700005</v>
+        <v>29.737591385850003</v>
       </c>
       <c r="D7" s="3">
-        <v>177.19090175619999</v>
+        <v>59.063633918733331</v>
       </c>
       <c r="E7" s="3">
-        <v>235.510066032</v>
+        <v>117.755033016</v>
       </c>
       <c r="F7" s="3">
-        <v>475.00418591499999</v>
+        <v>237.5020929575</v>
       </c>
       <c r="G7" s="3">
-        <v>938.82555913900001</v>
+        <v>469.4127795695</v>
       </c>
       <c r="H7" s="3">
-        <v>1947.3262464994</v>
+        <v>139.09473189281428</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4334,25 +4669,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>61.320350885499998</v>
+        <v>20.440116961833333</v>
       </c>
       <c r="C8" s="3">
-        <v>59.475182771700005</v>
+        <v>29.737591385850003</v>
       </c>
       <c r="D8" s="3">
-        <v>177.19090175619999</v>
+        <v>59.063633918733331</v>
       </c>
       <c r="E8" s="3">
-        <v>235.510066032</v>
+        <v>117.755033016</v>
       </c>
       <c r="F8" s="3">
-        <v>475.00418591499999</v>
+        <v>237.5020929575</v>
       </c>
       <c r="G8" s="3">
-        <v>938.82555913900001</v>
+        <v>469.4127795695</v>
       </c>
       <c r="H8" s="3">
-        <v>1947.3262464994</v>
+        <v>139.09473189281428</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4360,25 +4695,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>19.057651281350001</v>
+        <v>6.3525504271166673</v>
       </c>
       <c r="C9" s="3">
-        <v>37.783278942099997</v>
+        <v>12.594426314033333</v>
       </c>
       <c r="D9" s="3">
-        <v>69.602988004699995</v>
+        <v>23.200996001566665</v>
       </c>
       <c r="E9" s="3">
-        <v>130.93005108840001</v>
+        <v>43.6433503628</v>
       </c>
       <c r="F9" s="3">
-        <v>272.71549797060004</v>
+        <v>90.905165990200018</v>
       </c>
       <c r="G9" s="3">
-        <v>508.27807593300003</v>
+        <v>169.42602531100002</v>
       </c>
       <c r="H9" s="3">
-        <v>1038.3675432201501</v>
+        <v>57.687085734452779</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4386,25 +4721,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>19.057651281350001</v>
+        <v>6.3525504271166673</v>
       </c>
       <c r="C10" s="3">
-        <v>37.783278942099997</v>
+        <v>12.594426314033333</v>
       </c>
       <c r="D10" s="3">
-        <v>69.602988004699995</v>
+        <v>23.200996001566665</v>
       </c>
       <c r="E10" s="3">
-        <v>130.93005108840001</v>
+        <v>43.6433503628</v>
       </c>
       <c r="F10" s="3">
-        <v>272.71549797060004</v>
+        <v>90.905165990200018</v>
       </c>
       <c r="G10" s="3">
-        <v>508.27807593300003</v>
+        <v>169.42602531100002</v>
       </c>
       <c r="H10" s="3">
-        <v>1038.3675432201501</v>
+        <v>57.687085734452779</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4412,25 +4747,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>88.117555618289998</v>
+        <v>17.623511123657998</v>
       </c>
       <c r="C11" s="3">
-        <v>82.547482967400001</v>
+        <v>16.509496593480002</v>
       </c>
       <c r="D11" s="3">
-        <v>146.08464908599998</v>
+        <v>29.216929817199997</v>
       </c>
       <c r="E11" s="3">
-        <v>149.4862000947</v>
+        <v>74.743100047349998</v>
       </c>
       <c r="F11" s="3">
-        <v>297.86772322679997</v>
+        <v>148.93386161339998</v>
       </c>
       <c r="G11" s="3">
-        <v>831.284599781</v>
+        <v>415.6422998905</v>
       </c>
       <c r="H11" s="3">
-        <v>1595.3882107741899</v>
+        <v>75.970867179723342</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4438,51 +4773,51 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>88.117555618289998</v>
+        <v>17.623511123657998</v>
       </c>
       <c r="C12" s="3">
-        <v>82.547482967400001</v>
+        <v>16.509496593480002</v>
       </c>
       <c r="D12" s="3">
-        <v>146.08464908599998</v>
+        <v>29.216929817199997</v>
       </c>
       <c r="E12" s="3">
-        <v>149.4862000947</v>
+        <v>74.743100047349998</v>
       </c>
       <c r="F12" s="3">
-        <v>297.86772322679997</v>
+        <v>148.93386161339998</v>
       </c>
       <c r="G12" s="3">
-        <v>831.284599781</v>
+        <v>415.6422998905</v>
       </c>
       <c r="H12" s="3">
-        <v>1595.3882107741899</v>
+        <v>75.970867179723342</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>2235.2404928211399</v>
+        <v>149.01603285474269</v>
       </c>
       <c r="C13" s="3">
-        <v>2865.2624456881999</v>
+        <v>204.66160326344288</v>
       </c>
       <c r="D13" s="3">
-        <v>5585.9348540269002</v>
+        <v>372.39565693512662</v>
       </c>
       <c r="E13" s="3">
-        <v>11306.4524333551</v>
+        <v>1027.8593121231909</v>
       </c>
       <c r="F13" s="3">
-        <v>17081.028691052397</v>
+        <v>1708.1028691052404</v>
       </c>
       <c r="G13" s="3">
-        <v>35592.318612802992</v>
+        <v>3559.2318612803001</v>
       </c>
       <c r="H13" s="3">
-        <v>74666.237529746752</v>
+        <v>995.54983372995673</v>
       </c>
     </row>
   </sheetData>
